--- a/pred_ohlcv/54_21/2020-01-26 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 IPX ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>6195.45899999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>7762.40739999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>6201.47069999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-10666.32720000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-9278.057600000011</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9278.057600000011</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8599.915800000012</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>18915.62709999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>18915.62709999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>18915.62709999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>18915.62709999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>19544.95389999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>20801.72329999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>20801.72329999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>20801.72329999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>19572.70829999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>19572.70829999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>15123.17609999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>14331.61729999999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-6520.36280000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-6520.36280000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6544.123199999991</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1479.268300000009</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2878.748300000009</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-5677.857600000008</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-18527.97370000001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-19906.76730000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2624.131099999991</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2624.131099999991</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>15625.82879999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>17995.07659999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>43690.46969999998</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>41969.72139999998</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>38552.68589999998</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>38552.68589999998</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>40482.65829999998</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>41977.51439999998</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>142633.1965</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>265937.9377</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>265937.9377</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>205000.9001999999</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>208837.8919999999</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>206654.5387999999</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>171895.4078999999</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>149523.1658999999</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>147773.0037999999</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>175502.4637999999</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>162962.6193999999</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>164014.8302999999</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>176365.0323999999</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>176365.0323999999</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>173583.7438999999</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>173583.7438999999</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>174948.5635999999</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>161359.6008999999</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>138225.3954999999</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>117639.0126999999</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>62351.5340999999</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>51703.5335999999</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>53073.6150999999</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-338478.6903720972</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-577907.0606720973</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-577907.0606720973</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-577907.0606720973</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-578703.5692720972</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-579372.5313720972</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-577020.6046720973</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-577020.6046720973</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-577020.6046720973</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-577020.6046720973</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-577020.6046720973</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-574214.2889720972</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-592363.0459720972</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-587424.8404720972</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-587424.8404720972</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-583895.1325720971</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-617939.0179720972</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-617156.0891720972</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-622988.8128720971</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-621551.6161720972</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-624764.1375720971</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-622859.4879720971</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-631681.4705720971</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-632958.0246720971</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-632026.622772097</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-628919.385872097</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-623099.888972097</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-623099.888972097</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-624570.676172097</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-623250.379072097</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-628044.942472097</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-628793.682672097</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-627738.1446720971</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-629200.260772097</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-626729.518172097</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-602890.898972097</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-604501.517372097</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-604501.517372097</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-604501.517372097</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-604501.517372097</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-598711.1583720968</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-594505.1395720968</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-594505.1395720968</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-591386.5652720968</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-588738.0709720968</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-588738.0709720968</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-585185.5439720968</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-569833.6322720969</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-569833.6322720969</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-569833.6322720969</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-569833.6322720969</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 IPX ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>6195.45899999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>7762.40739999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>6201.47069999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-10666.32720000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-9278.057600000011</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9278.057600000011</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8599.915800000012</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>18915.62709999999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>18915.62709999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>18915.62709999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>18915.62709999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>19544.95389999999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>20801.72329999999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>20801.72329999999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>20801.72329999999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>19572.70829999999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>19572.70829999999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>15123.17609999999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>14331.61729999999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-6520.36280000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-6520.36280000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6544.123199999991</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1479.268300000009</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2878.748300000009</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-5677.857600000008</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-18527.97370000001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-19906.76730000001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2624.131099999991</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2624.131099999991</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>15625.82879999999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>17995.07659999999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>43690.46969999998</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>41969.72139999998</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>38552.68589999998</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>38552.68589999998</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>40482.65829999998</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>41977.51439999998</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>142633.1965</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>265937.9377</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>265937.9377</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>205000.9001999999</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>208837.8919999999</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>206654.5387999999</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>171895.4078999999</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>149523.1658999999</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>147773.0037999999</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>162962.6193999999</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>164014.8302999999</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>176365.0323999999</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>176365.0323999999</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>173583.7438999999</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>173583.7438999999</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>174948.5635999999</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>161359.6008999999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>138225.3954999999</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>117639.0126999999</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>62351.5340999999</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>51703.5335999999</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>53073.6150999999</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>15412.8101999999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-338478.6903720972</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-577907.0606720973</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-577907.0606720973</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-577907.0606720973</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-578703.5692720972</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-577469.5339720972</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-577469.5339720972</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-577469.5339720972</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-575900.8684720972</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-622859.4879720971</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-625261.3654720971</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-635350.1276720971</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-631681.4705720971</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-631681.4705720971</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-623099.888972097</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-626431.227172097</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-626431.227172097</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-626431.227172097</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-628044.942472097</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-628793.682672097</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-627738.1446720971</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-629200.260772097</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-626729.518172097</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-634474.662572097</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-634474.662572097</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-630040.7158720971</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-631748.106372097</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-627953.7230720971</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-627953.7230720971</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-627953.7230720971</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-633203.0725720971</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-630431.710072097</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-630431.710072097</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-610094.1581720971</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-602890.898972097</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-604501.517372097</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-604501.517372097</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-604501.517372097</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-604501.517372097</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-593617.9909720968</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-598711.1583720968</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-596350.9604720968</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-594505.1395720968</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-594505.1395720968</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-591386.5652720968</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-588738.0709720968</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-588738.0709720968</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-585185.5439720968</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-569833.6322720969</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-569833.6322720969</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-569833.6322720969</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-569833.6322720969</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
